--- a/assets/template/8d1_s1.xlsx
+++ b/assets/template/8d1_s1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\borang\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0925BD38-FB54-4938-844B-F22B919DFCDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500"/>
+    <workbookView xWindow="3405" yWindow="3795" windowWidth="19680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8d1" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,15 @@
   <definedNames>
     <definedName name="diploma">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -83,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,7 +532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
